--- a/crypto_live_data.xlsx
+++ b/crypto_live_data.xlsx
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83703</v>
+        <v>84016</v>
       </c>
       <c r="D2" t="n">
-        <v>1659377473175</v>
+        <v>1661676879344</v>
       </c>
       <c r="E2" t="n">
-        <v>68524107620</v>
+        <v>69355645598</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.463660000000001</v>
+        <v>-7.02592</v>
       </c>
     </row>
     <row r="3">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2094.59</v>
+        <v>2080.51</v>
       </c>
       <c r="D3" t="n">
-        <v>252268062516</v>
+        <v>250862158335</v>
       </c>
       <c r="E3" t="n">
-        <v>37016402909</v>
+        <v>36605874923</v>
       </c>
       <c r="F3" t="n">
-        <v>-11.42464</v>
+        <v>-8.74573</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.999423</v>
+        <v>0.999385</v>
       </c>
       <c r="D4" t="n">
-        <v>142426521089</v>
+        <v>142420402555</v>
       </c>
       <c r="E4" t="n">
-        <v>106364106033</v>
+        <v>114682656494</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02035</v>
+        <v>-0.00698</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="D5" t="n">
-        <v>135466803446</v>
+        <v>138450797233</v>
       </c>
       <c r="E5" t="n">
-        <v>12093320241</v>
+        <v>11278322557</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.46057</v>
+        <v>-7.86962</v>
       </c>
     </row>
     <row r="6">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>561.79</v>
+        <v>571.1799999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>81810053256</v>
+        <v>83202775050</v>
       </c>
       <c r="E6" t="n">
-        <v>1600192600</v>
+        <v>1499976633</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.97197</v>
+        <v>-4.05883</v>
       </c>
     </row>
     <row r="7">
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.29</v>
+        <v>137.76</v>
       </c>
       <c r="D7" t="n">
-        <v>69745491787</v>
+        <v>69895832790</v>
       </c>
       <c r="E7" t="n">
-        <v>10560870280</v>
+        <v>10102969324</v>
       </c>
       <c r="F7" t="n">
-        <v>-15.16353</v>
+        <v>-12.72925</v>
       </c>
     </row>
     <row r="8">
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.999773</v>
+        <v>0.999877</v>
       </c>
       <c r="D8" t="n">
-        <v>56238275155</v>
+        <v>56285902585</v>
       </c>
       <c r="E8" t="n">
-        <v>11969977060</v>
+        <v>17240121458</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00332</v>
+        <v>-0.00427</v>
       </c>
     </row>
     <row r="9">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.811503</v>
+        <v>0.880883</v>
       </c>
       <c r="D9" t="n">
-        <v>29179426754</v>
+        <v>31482021533</v>
       </c>
       <c r="E9" t="n">
-        <v>5310592439</v>
+        <v>4748013946</v>
       </c>
       <c r="F9" t="n">
-        <v>-19.42899</v>
+        <v>-9.19943</v>
       </c>
     </row>
     <row r="10">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.192618</v>
+        <v>0.192464</v>
       </c>
       <c r="D10" t="n">
-        <v>28504893785</v>
+        <v>28439433598</v>
       </c>
       <c r="E10" t="n">
-        <v>2847903525</v>
+        <v>2778852678</v>
       </c>
       <c r="F10" t="n">
-        <v>-12.38189</v>
+        <v>-10.92039</v>
       </c>
     </row>
     <row r="11">
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.232276</v>
+        <v>0.237222</v>
       </c>
       <c r="D11" t="n">
-        <v>19980014849</v>
+        <v>20390178189</v>
       </c>
       <c r="E11" t="n">
-        <v>1341022021</v>
+        <v>1510856163</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.90888</v>
+        <v>-1.82534</v>
       </c>
     </row>
     <row r="12">
@@ -718,424 +718,424 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2091.74</v>
+        <v>2081.02</v>
       </c>
       <c r="D12" t="n">
-        <v>19654948080</v>
+        <v>19502472120</v>
       </c>
       <c r="E12" t="n">
-        <v>133873592</v>
+        <v>188780856</v>
       </c>
       <c r="F12" t="n">
-        <v>-11.54568</v>
+        <v>-8.40056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
+          <t>Pi Network</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>83666</v>
+        <v>1.75</v>
       </c>
       <c r="D13" t="n">
-        <v>10792320055</v>
+        <v>12134273796</v>
       </c>
       <c r="E13" t="n">
-        <v>836360387</v>
+        <v>815815324</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.22165</v>
+        <v>1.23768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Wrapped Bitcoin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>WBTC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.228045</v>
+        <v>83683</v>
       </c>
       <c r="D14" t="n">
-        <v>9588939144</v>
+        <v>10801840781</v>
       </c>
       <c r="E14" t="n">
-        <v>755752921</v>
+        <v>808245158</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.41376</v>
+        <v>-7.03777</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.949999999999999</v>
+        <v>0.236245</v>
       </c>
       <c r="D15" t="n">
-        <v>9187317631</v>
+        <v>9875467986</v>
       </c>
       <c r="E15" t="n">
-        <v>8751052</v>
+        <v>896388403</v>
       </c>
       <c r="F15" t="n">
-        <v>0.38307</v>
+        <v>-3.02431</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WSTETH</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2505.74</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>8920850983</v>
+        <v>9192856882</v>
       </c>
       <c r="E16" t="n">
-        <v>58801155</v>
+        <v>9472624</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.48437</v>
+        <v>-0.24846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>WSTETH</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.95</v>
+        <v>2483.44</v>
       </c>
       <c r="D17" t="n">
-        <v>8900966400</v>
+        <v>8816910376</v>
       </c>
       <c r="E17" t="n">
-        <v>1043942982</v>
+        <v>83748391</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.06666</v>
+        <v>-8.757569999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.284321</v>
+        <v>13.78</v>
       </c>
       <c r="D18" t="n">
-        <v>8727095151</v>
+        <v>8786978171</v>
       </c>
       <c r="E18" t="n">
-        <v>416263492</v>
+        <v>1097688210</v>
       </c>
       <c r="F18" t="n">
-        <v>-14.89754</v>
+        <v>-14.76197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.02</v>
+        <v>0.284494</v>
       </c>
       <c r="D19" t="n">
-        <v>8290992815</v>
+        <v>8719626932</v>
       </c>
       <c r="E19" t="n">
-        <v>754958741</v>
+        <v>379476851</v>
       </c>
       <c r="F19" t="n">
-        <v>-15.08158</v>
+        <v>-10.99505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.999992</v>
+        <v>19.73</v>
       </c>
       <c r="D20" t="n">
-        <v>7949603610</v>
+        <v>8168511203</v>
       </c>
       <c r="E20" t="n">
-        <v>96339829</v>
+        <v>859886957</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02056</v>
+        <v>-15.08448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>104.93</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>7930365926</v>
+        <v>7931597705</v>
       </c>
       <c r="E21" t="n">
-        <v>1649051107</v>
+        <v>87782461</v>
       </c>
       <c r="F21" t="n">
-        <v>-12.07365</v>
+        <v>0.11705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.47</v>
+        <v>3.07</v>
       </c>
       <c r="D22" t="n">
-        <v>7818161749</v>
+        <v>7582678216</v>
       </c>
       <c r="E22" t="n">
-        <v>1375642447</v>
+        <v>314288099</v>
       </c>
       <c r="F22" t="n">
-        <v>-16.69194</v>
+        <v>-6.23516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.271e-05</v>
+        <v>100.53</v>
       </c>
       <c r="D23" t="n">
-        <v>7488266481</v>
+        <v>7582361210</v>
       </c>
       <c r="E23" t="n">
-        <v>465848584</v>
+        <v>1667223336</v>
       </c>
       <c r="F23" t="n">
-        <v>-9.988519999999999</v>
+        <v>-12.1806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.01</v>
+        <v>1.271e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>7446465428</v>
+        <v>7485464763</v>
       </c>
       <c r="E24" t="n">
-        <v>297388874</v>
+        <v>499213353</v>
       </c>
       <c r="F24" t="n">
-        <v>-9.278359999999999</v>
+        <v>-7.29407</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MANTRA</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.87</v>
+        <v>2.37</v>
       </c>
       <c r="D25" t="n">
-        <v>6696326364</v>
+        <v>7482590100</v>
       </c>
       <c r="E25" t="n">
-        <v>173976849</v>
+        <v>1564766675</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.9555</v>
+        <v>-17.29152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>MANTRA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.28</v>
+        <v>7.14</v>
       </c>
       <c r="D26" t="n">
-        <v>6515065896</v>
+        <v>6969282724</v>
       </c>
       <c r="E26" t="n">
-        <v>381871473</v>
+        <v>228536038</v>
       </c>
       <c r="F26" t="n">
-        <v>-13.3827</v>
+        <v>-3.57664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>307.16</v>
+        <v>4.21</v>
       </c>
       <c r="D27" t="n">
-        <v>6088198335</v>
+        <v>6396078315</v>
       </c>
       <c r="E27" t="n">
-        <v>590551361</v>
+        <v>408606310</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.86483</v>
+        <v>-13.35549</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2094.93</v>
+        <v>305.21</v>
       </c>
       <c r="D28" t="n">
-        <v>6001182271</v>
+        <v>6036150222</v>
       </c>
       <c r="E28" t="n">
-        <v>1203228431</v>
+        <v>403445875</v>
       </c>
       <c r="F28" t="n">
-        <v>-11.46919</v>
+        <v>-11.58443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16.44</v>
+        <v>2078.74</v>
       </c>
       <c r="D29" t="n">
-        <v>5485028693</v>
+        <v>5997757620</v>
       </c>
       <c r="E29" t="n">
-        <v>325077485</v>
+        <v>1960438435</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.46162</v>
+        <v>-8.698700000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1150,160 +1150,160 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9987</v>
+        <v>0.9988899999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>5452707594</v>
+        <v>5445353255</v>
       </c>
       <c r="E30" t="n">
-        <v>88992744</v>
+        <v>103661843</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03819</v>
+        <v>-0.02512</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.18</v>
+        <v>16.29</v>
       </c>
       <c r="D31" t="n">
-        <v>5009266743</v>
+        <v>5431024599</v>
       </c>
       <c r="E31" t="n">
-        <v>384867435</v>
+        <v>375742757</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.99651</v>
+        <v>-13.55829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WEETH</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2222.71</v>
+        <v>4.11</v>
       </c>
       <c r="D32" t="n">
-        <v>4275746642</v>
+        <v>4925609512</v>
       </c>
       <c r="E32" t="n">
-        <v>28749606</v>
+        <v>344911202</v>
       </c>
       <c r="F32" t="n">
-        <v>-11.71417</v>
+        <v>-7.7355</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WBT</t>
+          <t>WEETH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29.39</v>
+        <v>2207.92</v>
       </c>
       <c r="D33" t="n">
-        <v>4232837458</v>
+        <v>4234814094</v>
       </c>
       <c r="E33" t="n">
-        <v>111333266</v>
+        <v>35391258</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.35036</v>
+        <v>-8.6998</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>WBT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.8</v>
+        <v>29.34</v>
       </c>
       <c r="D34" t="n">
-        <v>4085837526</v>
+        <v>4226106083</v>
       </c>
       <c r="E34" t="n">
-        <v>337415523</v>
+        <v>145682879</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.68739</v>
+        <v>-3.24831</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>214.55</v>
+        <v>6.8</v>
       </c>
       <c r="D35" t="n">
-        <v>3942067457</v>
+        <v>4088934005</v>
       </c>
       <c r="E35" t="n">
-        <v>64134658</v>
+        <v>407821404</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.85864</v>
+        <v>-11.54285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.82</v>
+        <v>212.38</v>
       </c>
       <c r="D36" t="n">
-        <v>3348241640</v>
+        <v>3919602303</v>
       </c>
       <c r="E36" t="n">
-        <v>383646608</v>
+        <v>67227356</v>
       </c>
       <c r="F36" t="n">
-        <v>-14.40245</v>
+        <v>-7.93787</v>
       </c>
     </row>
     <row r="37">
@@ -1318,328 +1318,328 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.999711</v>
+        <v>0.999869</v>
       </c>
       <c r="D37" t="n">
-        <v>3271165581</v>
+        <v>3271264529</v>
       </c>
       <c r="E37" t="n">
-        <v>221782610</v>
+        <v>229448209</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00123</v>
+        <v>0.00805</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.49</v>
+        <v>2.69</v>
       </c>
       <c r="D38" t="n">
-        <v>3230653497</v>
+        <v>3202373618</v>
       </c>
       <c r="E38" t="n">
-        <v>384457028</v>
+        <v>416906706</v>
       </c>
       <c r="F38" t="n">
-        <v>-12.12898</v>
+        <v>-17.8189</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sUSDS</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SUSDS</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.041</v>
+        <v>5.26</v>
       </c>
       <c r="D39" t="n">
-        <v>3055964777</v>
+        <v>3098894462</v>
       </c>
       <c r="E39" t="n">
-        <v>1566630</v>
+        <v>413756015</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07054000000000001</v>
+        <v>-15.42943</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9357839999999999</v>
+        <v>199.64</v>
       </c>
       <c r="D40" t="n">
-        <v>2954487368</v>
+        <v>3011983197</v>
       </c>
       <c r="E40" t="n">
-        <v>360642072</v>
+        <v>687611429</v>
       </c>
       <c r="F40" t="n">
-        <v>-17.01037</v>
+        <v>0.14094</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>sUSDS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SUSDS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.9e-06</v>
+        <v>1.043</v>
       </c>
       <c r="D41" t="n">
-        <v>2900791978</v>
+        <v>3007240928</v>
       </c>
       <c r="E41" t="n">
-        <v>1084789968</v>
+        <v>1878851</v>
       </c>
       <c r="F41" t="n">
-        <v>-16.4438</v>
+        <v>0.26927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.99</v>
+        <v>0.914899</v>
       </c>
       <c r="D42" t="n">
-        <v>2881306142</v>
+        <v>2893183374</v>
       </c>
       <c r="E42" t="n">
-        <v>121932009</v>
+        <v>390923395</v>
       </c>
       <c r="F42" t="n">
-        <v>-12.23609</v>
+        <v>-17.13825</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.44</v>
+        <v>5.86</v>
       </c>
       <c r="D43" t="n">
-        <v>2782943648</v>
+        <v>2821650407</v>
       </c>
       <c r="E43" t="n">
-        <v>173917940</v>
+        <v>132799129</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.6279</v>
+        <v>-12.43504</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>175.13</v>
+        <v>6.7e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>2640686963</v>
+        <v>2813164120</v>
       </c>
       <c r="E44" t="n">
-        <v>422558259</v>
+        <v>1176159725</v>
       </c>
       <c r="F44" t="n">
-        <v>-15.61376</v>
+        <v>-15.55409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20.11</v>
+        <v>18.46</v>
       </c>
       <c r="D45" t="n">
-        <v>2531433498</v>
+        <v>2783676811</v>
       </c>
       <c r="E45" t="n">
-        <v>24209170</v>
+        <v>176426353</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.441839999999999</v>
+        <v>-7.39281</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42.2</v>
+        <v>19.97</v>
       </c>
       <c r="D46" t="n">
-        <v>2530692803</v>
+        <v>2513411243</v>
       </c>
       <c r="E46" t="n">
-        <v>26170783</v>
+        <v>24960346</v>
       </c>
       <c r="F46" t="n">
-        <v>-9.22456</v>
+        <v>-7.37125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Official Trump</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12.3</v>
+        <v>41.21</v>
       </c>
       <c r="D47" t="n">
-        <v>2457738566</v>
+        <v>2470910297</v>
       </c>
       <c r="E47" t="n">
-        <v>2423736842</v>
+        <v>28268635</v>
       </c>
       <c r="F47" t="n">
-        <v>-18.83221</v>
+        <v>-10.7161</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Official Trump</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.718547</v>
+        <v>12.38</v>
       </c>
       <c r="D48" t="n">
-        <v>2415436560</v>
+        <v>2470544227</v>
       </c>
       <c r="E48" t="n">
-        <v>119581850</v>
+        <v>1980909099</v>
       </c>
       <c r="F48" t="n">
-        <v>-5.29359</v>
+        <v>-15.52849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Coinbase Wrapped BTC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>CBBTC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>285.56</v>
+        <v>83911</v>
       </c>
       <c r="D49" t="n">
-        <v>2408839951</v>
+        <v>2421173266</v>
       </c>
       <c r="E49" t="n">
-        <v>199987979</v>
+        <v>538985057</v>
       </c>
       <c r="F49" t="n">
-        <v>-13.79208</v>
+        <v>-6.89961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Coinbase Wrapped BTC</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CBBTC</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>83708</v>
+        <v>0.715885</v>
       </c>
       <c r="D50" t="n">
-        <v>2403561257</v>
+        <v>2406940619</v>
       </c>
       <c r="E50" t="n">
-        <v>527957111</v>
+        <v>116363262</v>
       </c>
       <c r="F50" t="n">
-        <v>-8.64095</v>
+        <v>-4.5626</v>
       </c>
     </row>
     <row r="51">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29.1</v>
+        <v>28.86</v>
       </c>
       <c r="D51" t="n">
-        <v>2328640401</v>
+        <v>2304540692</v>
       </c>
       <c r="E51" t="n">
-        <v>15339659</v>
+        <v>14262380</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.27002</v>
+        <v>-2.35183</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-04 12:23:10</t>
+          <t>2025-03-04 22:47:56</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$5282.77</t>
+          <t>$5286.67</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LEO Token (0.38%)</t>
+          <t>Pi Network (1.24%)</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cardano (-19.43%)</t>
+          <t>NEAR Protocol (-17.82%)</t>
         </is>
       </c>
     </row>

--- a/crypto_live_data.xlsx
+++ b/crypto_live_data.xlsx
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83703</v>
+        <v>84691</v>
       </c>
       <c r="D2" t="n">
-        <v>1659377473175</v>
+        <v>1668305607915</v>
       </c>
       <c r="E2" t="n">
-        <v>68524107620</v>
+        <v>68615162383</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.463660000000001</v>
+        <v>-6.93496</v>
       </c>
     </row>
     <row r="3">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2094.59</v>
+        <v>2126.87</v>
       </c>
       <c r="D3" t="n">
-        <v>252268062516</v>
+        <v>254574919263</v>
       </c>
       <c r="E3" t="n">
-        <v>37016402909</v>
+        <v>36808605728</v>
       </c>
       <c r="F3" t="n">
-        <v>-11.42464</v>
+        <v>-8.34483</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +526,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.999423</v>
+        <v>0.999333</v>
       </c>
       <c r="D4" t="n">
-        <v>142426521089</v>
+        <v>142414725432</v>
       </c>
       <c r="E4" t="n">
-        <v>106364106033</v>
+        <v>90993221888</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02035</v>
+        <v>-0.03518</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="D5" t="n">
-        <v>135466803446</v>
+        <v>140234281340</v>
       </c>
       <c r="E5" t="n">
-        <v>12093320241</v>
+        <v>13571971959</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.46057</v>
+        <v>-7.69101</v>
       </c>
     </row>
     <row r="6">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>561.79</v>
+        <v>577.21</v>
       </c>
       <c r="D6" t="n">
-        <v>81810053256</v>
+        <v>83736229850</v>
       </c>
       <c r="E6" t="n">
-        <v>1600192600</v>
+        <v>1171766441</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.97197</v>
+        <v>-2.95984</v>
       </c>
     </row>
     <row r="7">
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.29</v>
+        <v>142.28</v>
       </c>
       <c r="D7" t="n">
-        <v>69745491787</v>
+        <v>71509536107</v>
       </c>
       <c r="E7" t="n">
-        <v>10560870280</v>
+        <v>10107983974</v>
       </c>
       <c r="F7" t="n">
-        <v>-15.16353</v>
+        <v>-11.25725</v>
       </c>
     </row>
     <row r="8">
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.999773</v>
+        <v>0.999968</v>
       </c>
       <c r="D8" t="n">
-        <v>56238275155</v>
+        <v>56328047113</v>
       </c>
       <c r="E8" t="n">
-        <v>11969977060</v>
+        <v>10963551917</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00332</v>
+        <v>0.008840000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.811503</v>
+        <v>0.859436</v>
       </c>
       <c r="D9" t="n">
-        <v>29179426754</v>
+        <v>30705483779</v>
       </c>
       <c r="E9" t="n">
-        <v>5310592439</v>
+        <v>5379900666</v>
       </c>
       <c r="F9" t="n">
-        <v>-19.42899</v>
+        <v>-11.01596</v>
       </c>
     </row>
     <row r="10">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.192618</v>
+        <v>0.198158</v>
       </c>
       <c r="D10" t="n">
-        <v>28504893785</v>
+        <v>29072112585</v>
       </c>
       <c r="E10" t="n">
-        <v>2847903525</v>
+        <v>2888601783</v>
       </c>
       <c r="F10" t="n">
-        <v>-12.38189</v>
+        <v>-8.94008</v>
       </c>
     </row>
     <row r="11">
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.232276</v>
+        <v>0.237121</v>
       </c>
       <c r="D11" t="n">
-        <v>19980014849</v>
+        <v>20305505082</v>
       </c>
       <c r="E11" t="n">
-        <v>1341022021</v>
+        <v>1413304532</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.90888</v>
+        <v>-2.12085</v>
       </c>
     </row>
     <row r="12">
@@ -718,424 +718,424 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2091.74</v>
+        <v>2119.77</v>
       </c>
       <c r="D12" t="n">
-        <v>19654948080</v>
+        <v>19707926200</v>
       </c>
       <c r="E12" t="n">
-        <v>133873592</v>
+        <v>183294670</v>
       </c>
       <c r="F12" t="n">
-        <v>-11.54568</v>
+        <v>-8.34596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
+          <t>Pi Network</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>83666</v>
+        <v>1.78</v>
       </c>
       <c r="D13" t="n">
-        <v>10792320055</v>
+        <v>12260513497</v>
       </c>
       <c r="E13" t="n">
-        <v>836360387</v>
+        <v>719040012</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.22165</v>
+        <v>3.50195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Wrapped Bitcoin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>WBTC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.228045</v>
+        <v>84601</v>
       </c>
       <c r="D14" t="n">
-        <v>9588939144</v>
+        <v>10925312028</v>
       </c>
       <c r="E14" t="n">
-        <v>755752921</v>
+        <v>821737492</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.41376</v>
+        <v>-6.8824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.949999999999999</v>
+        <v>0.237376</v>
       </c>
       <c r="D15" t="n">
-        <v>9187317631</v>
+        <v>9915148974</v>
       </c>
       <c r="E15" t="n">
-        <v>8751052</v>
+        <v>989785725</v>
       </c>
       <c r="F15" t="n">
-        <v>0.38307</v>
+        <v>-5.33909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WSTETH</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2505.74</v>
+        <v>10.07</v>
       </c>
       <c r="D16" t="n">
-        <v>8920850983</v>
+        <v>9305895793</v>
       </c>
       <c r="E16" t="n">
-        <v>58801155</v>
+        <v>8609395</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.48437</v>
+        <v>1.7533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>WSTETH</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.95</v>
+        <v>2563.26</v>
       </c>
       <c r="D17" t="n">
-        <v>8900966400</v>
+        <v>9012985962</v>
       </c>
       <c r="E17" t="n">
-        <v>1043942982</v>
+        <v>77443074</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.06666</v>
+        <v>-7.39994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.284321</v>
+        <v>14.07</v>
       </c>
       <c r="D18" t="n">
-        <v>8727095151</v>
+        <v>8912052672</v>
       </c>
       <c r="E18" t="n">
-        <v>416263492</v>
+        <v>1085512749</v>
       </c>
       <c r="F18" t="n">
-        <v>-14.89754</v>
+        <v>-14.91149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.02</v>
+        <v>0.289289</v>
       </c>
       <c r="D19" t="n">
-        <v>8290992815</v>
+        <v>8806615176</v>
       </c>
       <c r="E19" t="n">
-        <v>754958741</v>
+        <v>422558629</v>
       </c>
       <c r="F19" t="n">
-        <v>-15.08158</v>
+        <v>-11.25966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.999992</v>
+        <v>20.4</v>
       </c>
       <c r="D20" t="n">
-        <v>7949603610</v>
+        <v>8391112095</v>
       </c>
       <c r="E20" t="n">
-        <v>96339829</v>
+        <v>822337550</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02056</v>
+        <v>-12.83792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>104.93</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>7930365926</v>
+        <v>7945048807</v>
       </c>
       <c r="E21" t="n">
-        <v>1649051107</v>
+        <v>61652474</v>
       </c>
       <c r="F21" t="n">
-        <v>-12.07365</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.47</v>
+        <v>104.33</v>
       </c>
       <c r="D22" t="n">
-        <v>7818161749</v>
+        <v>7812184362</v>
       </c>
       <c r="E22" t="n">
-        <v>1375642447</v>
+        <v>1574325261</v>
       </c>
       <c r="F22" t="n">
-        <v>-16.69194</v>
+        <v>-9.56579</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.271e-05</v>
+        <v>3.12</v>
       </c>
       <c r="D23" t="n">
-        <v>7488266481</v>
+        <v>7678972297</v>
       </c>
       <c r="E23" t="n">
-        <v>465848584</v>
+        <v>320270192</v>
       </c>
       <c r="F23" t="n">
-        <v>-9.988519999999999</v>
+        <v>-5.52245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.01</v>
+        <v>2.45</v>
       </c>
       <c r="D24" t="n">
-        <v>7446465428</v>
+        <v>7670848221</v>
       </c>
       <c r="E24" t="n">
-        <v>297388874</v>
+        <v>1546831486</v>
       </c>
       <c r="F24" t="n">
-        <v>-9.278359999999999</v>
+        <v>-16.24126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MANTRA</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.87</v>
+        <v>1.305e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>6696326364</v>
+        <v>7633476365</v>
       </c>
       <c r="E25" t="n">
-        <v>173976849</v>
+        <v>514222609</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.9555</v>
+        <v>-6.26859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>MANTRA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.28</v>
+        <v>7.06</v>
       </c>
       <c r="D26" t="n">
-        <v>6515065896</v>
+        <v>6820733178</v>
       </c>
       <c r="E26" t="n">
-        <v>381871473</v>
+        <v>203414338</v>
       </c>
       <c r="F26" t="n">
-        <v>-13.3827</v>
+        <v>-3.01929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>307.16</v>
+        <v>4.3</v>
       </c>
       <c r="D27" t="n">
-        <v>6088198335</v>
+        <v>6484332788</v>
       </c>
       <c r="E27" t="n">
-        <v>590551361</v>
+        <v>410581788</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.86483</v>
+        <v>-12.2823</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2094.93</v>
+        <v>316.2</v>
       </c>
       <c r="D28" t="n">
-        <v>6001182271</v>
+        <v>6213730825</v>
       </c>
       <c r="E28" t="n">
-        <v>1203228431</v>
+        <v>491830498</v>
       </c>
       <c r="F28" t="n">
-        <v>-11.46919</v>
+        <v>-6.09046</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16.44</v>
+        <v>2138.05</v>
       </c>
       <c r="D29" t="n">
-        <v>5485028693</v>
+        <v>6079376797</v>
       </c>
       <c r="E29" t="n">
-        <v>325077485</v>
+        <v>1901220443</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.46162</v>
+        <v>-7.79625</v>
       </c>
     </row>
     <row r="30">
@@ -1150,400 +1150,400 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9987</v>
+        <v>0.998899</v>
       </c>
       <c r="D30" t="n">
-        <v>5452707594</v>
+        <v>5448284065</v>
       </c>
       <c r="E30" t="n">
-        <v>88992744</v>
+        <v>104373459</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03819</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.18</v>
+        <v>16.42</v>
       </c>
       <c r="D31" t="n">
-        <v>5009266743</v>
+        <v>5434103062</v>
       </c>
       <c r="E31" t="n">
-        <v>384867435</v>
+        <v>368941150</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.99651</v>
+        <v>-15.62228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WEETH</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2222.71</v>
+        <v>4.17</v>
       </c>
       <c r="D32" t="n">
-        <v>4275746642</v>
+        <v>4921508738</v>
       </c>
       <c r="E32" t="n">
-        <v>28749606</v>
+        <v>353213116</v>
       </c>
       <c r="F32" t="n">
-        <v>-11.71417</v>
+        <v>-7.74536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WBT</t>
+          <t>WEETH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29.39</v>
+        <v>2263.01</v>
       </c>
       <c r="D33" t="n">
-        <v>4232837458</v>
+        <v>4334128454</v>
       </c>
       <c r="E33" t="n">
-        <v>111333266</v>
+        <v>30383710</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.35036</v>
+        <v>-7.87038</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>WBT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.8</v>
+        <v>29.93</v>
       </c>
       <c r="D34" t="n">
-        <v>4085837526</v>
+        <v>4281665721</v>
       </c>
       <c r="E34" t="n">
-        <v>337415523</v>
+        <v>141534155</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.68739</v>
+        <v>-1.56903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>214.55</v>
+        <v>6.92</v>
       </c>
       <c r="D35" t="n">
-        <v>3942067457</v>
+        <v>4126709295</v>
       </c>
       <c r="E35" t="n">
-        <v>64134658</v>
+        <v>365903364</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.85864</v>
+        <v>-11.37376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.82</v>
+        <v>216.82</v>
       </c>
       <c r="D36" t="n">
-        <v>3348241640</v>
+        <v>3964995023</v>
       </c>
       <c r="E36" t="n">
-        <v>383646608</v>
+        <v>65581423</v>
       </c>
       <c r="F36" t="n">
-        <v>-14.40245</v>
+        <v>-5.42726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.999711</v>
+        <v>2.81</v>
       </c>
       <c r="D37" t="n">
-        <v>3271165581</v>
+        <v>3317122524</v>
       </c>
       <c r="E37" t="n">
-        <v>221782610</v>
+        <v>412998239</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00123</v>
+        <v>-13.97688</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.49</v>
+        <v>0.999606</v>
       </c>
       <c r="D38" t="n">
-        <v>3230653497</v>
+        <v>3277977105</v>
       </c>
       <c r="E38" t="n">
-        <v>384457028</v>
+        <v>224501301</v>
       </c>
       <c r="F38" t="n">
-        <v>-12.12898</v>
+        <v>0.00693</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sUSDS</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SUSDS</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.041</v>
+        <v>5.48</v>
       </c>
       <c r="D39" t="n">
-        <v>3055964777</v>
+        <v>3205964591</v>
       </c>
       <c r="E39" t="n">
-        <v>1566630</v>
+        <v>389307904</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07054000000000001</v>
+        <v>-12.94364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>sUSDS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>SUSDS</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9357839999999999</v>
+        <v>1.042</v>
       </c>
       <c r="D40" t="n">
-        <v>2954487368</v>
+        <v>3016171614</v>
       </c>
       <c r="E40" t="n">
-        <v>360642072</v>
+        <v>1759153</v>
       </c>
       <c r="F40" t="n">
-        <v>-17.01037</v>
+        <v>0.11259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.9e-06</v>
+        <v>0.939233</v>
       </c>
       <c r="D41" t="n">
-        <v>2900791978</v>
+        <v>2939621432</v>
       </c>
       <c r="E41" t="n">
-        <v>1084789968</v>
+        <v>483909855</v>
       </c>
       <c r="F41" t="n">
-        <v>-16.4438</v>
+        <v>-17.30967</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.99</v>
+        <v>7.09e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>2881306142</v>
+        <v>2937553429</v>
       </c>
       <c r="E42" t="n">
-        <v>121932009</v>
+        <v>783693527</v>
       </c>
       <c r="F42" t="n">
-        <v>-12.23609</v>
+        <v>-12.95279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.44</v>
+        <v>195.16</v>
       </c>
       <c r="D43" t="n">
-        <v>2782943648</v>
+        <v>2914938754</v>
       </c>
       <c r="E43" t="n">
-        <v>173917940</v>
+        <v>622343859</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.6279</v>
+        <v>-5.12873</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>175.13</v>
+        <v>6.06</v>
       </c>
       <c r="D44" t="n">
-        <v>2640686963</v>
+        <v>2891401150</v>
       </c>
       <c r="E44" t="n">
-        <v>422558259</v>
+        <v>128465197</v>
       </c>
       <c r="F44" t="n">
-        <v>-15.61376</v>
+        <v>-10.67337</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20.11</v>
+        <v>18.77</v>
       </c>
       <c r="D45" t="n">
-        <v>2531433498</v>
+        <v>2814881389</v>
       </c>
       <c r="E45" t="n">
-        <v>24209170</v>
+        <v>196056069</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.441839999999999</v>
+        <v>-5.52695</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42.2</v>
+        <v>20.19</v>
       </c>
       <c r="D46" t="n">
-        <v>2530692803</v>
+        <v>2540332856</v>
       </c>
       <c r="E46" t="n">
-        <v>26170783</v>
+        <v>24405956</v>
       </c>
       <c r="F46" t="n">
-        <v>-9.22456</v>
+        <v>-6.6648</v>
       </c>
     </row>
     <row r="47">
@@ -1558,112 +1558,112 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12.3</v>
+        <v>12.59</v>
       </c>
       <c r="D47" t="n">
-        <v>2457738566</v>
+        <v>2513767633</v>
       </c>
       <c r="E47" t="n">
-        <v>2423736842</v>
+        <v>2122514701</v>
       </c>
       <c r="F47" t="n">
-        <v>-18.83221</v>
+        <v>-15.46241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.718547</v>
+        <v>41.8</v>
       </c>
       <c r="D48" t="n">
-        <v>2415436560</v>
+        <v>2508178817</v>
       </c>
       <c r="E48" t="n">
-        <v>119581850</v>
+        <v>29641948</v>
       </c>
       <c r="F48" t="n">
-        <v>-5.29359</v>
+        <v>-8.57925</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Coinbase Wrapped BTC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>CBBTC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>285.56</v>
+        <v>84426</v>
       </c>
       <c r="D49" t="n">
-        <v>2408839951</v>
+        <v>2425794323</v>
       </c>
       <c r="E49" t="n">
-        <v>199987979</v>
+        <v>526518365</v>
       </c>
       <c r="F49" t="n">
-        <v>-13.79208</v>
+        <v>-7.31215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Coinbase Wrapped BTC</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CBBTC</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>83708</v>
+        <v>0.727613</v>
       </c>
       <c r="D50" t="n">
-        <v>2403561257</v>
+        <v>2422127128</v>
       </c>
       <c r="E50" t="n">
-        <v>527957111</v>
+        <v>116903037</v>
       </c>
       <c r="F50" t="n">
-        <v>-8.64095</v>
+        <v>-4.04246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tokenize Xchange</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TKX</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29.1</v>
+        <v>277.62</v>
       </c>
       <c r="D51" t="n">
-        <v>2328640401</v>
+        <v>2316769533</v>
       </c>
       <c r="E51" t="n">
-        <v>15339659</v>
+        <v>222940774</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.27002</v>
+        <v>-14.15931</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-04 12:23:10</t>
+          <t>2025-03-04 20:19:17</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$5282.77</t>
+          <t>$5339.98</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LEO Token (0.38%)</t>
+          <t>Pi Network (3.50%)</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cardano (-19.43%)</t>
+          <t>Ondo (-17.31%)</t>
         </is>
       </c>
     </row>
